--- a/Manual_Test_Report.xlsx
+++ b/Manual_Test_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automata szoftvertesztelő képzés\GIT\conduit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A48F137A-82EA-465D-9839-2DDFADFABF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184F93B2-607F-4676-A305-489A32B58F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="235">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -775,9 +775,6 @@
     <t>Az email cím beviteli mezőbe írjuk át a "james_bond007@gmail.com"-ot, james_bond006@gmail.com-ra.</t>
   </si>
   <si>
-    <t>Eltűnik a felugró ablak, de az email címünk nem módosúlt.</t>
-  </si>
-  <si>
     <t>Kijelentkezés.</t>
   </si>
   <si>
@@ -794,6 +791,18 @@
   </si>
   <si>
     <t>RC_20</t>
+  </si>
+  <si>
+    <t>Eltűnik a felugró ablak, és az új email cím jelenik meg az email beviteli mezőben.</t>
+  </si>
+  <si>
+    <t>Nem módosúlt az email cím, az eredeti james_bond007@gmail.com címet tartalmazza.</t>
+  </si>
+  <si>
+    <t>Az átírást követően, az "Update Settings" gomb használatával az új email címnek kellene lennie az email mezőben, de ugyanúgy a régi email cím található benne.</t>
+  </si>
+  <si>
+    <t>Az "unfollow testuser1" gomb használtalával, a home oldalon lévő Your feed link alatt található cikkeknél, elkéne tűnnie testuser1 bejegyzéseinek, de ez nem történik meg, ugyúgy láthatóak.</t>
   </si>
 </sst>
 </file>
@@ -1162,79 +1171,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,6 +1195,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -4150,9 +4159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4180,244 +4189,248 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="37" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" s="65" t="s">
+      <c r="B19" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="37" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="65" t="s">
+      <c r="B21" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4519,13 +4532,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -4540,13 +4553,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -4577,13 +4590,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -4592,12 +4605,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -4611,11 +4624,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>111</v>
@@ -4627,11 +4640,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -4640,11 +4653,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -4653,17 +4666,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -4675,147 +4688,149 @@
       <c r="A12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="E19:F19"/>
@@ -4832,14 +4847,12 @@
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="236" priority="16" operator="containsText" text="No run">
@@ -4930,8 +4943,8 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4981,13 +4994,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -5002,13 +5015,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -5039,13 +5052,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -5054,12 +5067,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -5073,11 +5086,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>131</v>
@@ -5089,11 +5102,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -5102,11 +5115,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -5120,11 +5133,11 @@
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -5136,267 +5149,233 @@
       <c r="A12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="38"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="38"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
@@ -5409,6 +5388,40 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="218" priority="40" operator="containsText" text="No run">
@@ -5594,13 +5607,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -5615,13 +5628,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -5652,13 +5665,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -5667,12 +5680,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -5686,11 +5699,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>141</v>
@@ -5702,11 +5715,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -5715,11 +5728,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -5728,17 +5741,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -5750,165 +5763,182 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" s="24" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60">
+      <c r="A20" s="33">
         <v>5</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="61"/>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
@@ -5924,24 +5954,7 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="188" priority="19" operator="containsText" text="No run">
@@ -6094,13 +6107,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -6115,13 +6128,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -6152,13 +6165,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6167,12 +6180,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -6186,11 +6199,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>143</v>
@@ -6202,11 +6215,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -6215,11 +6228,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -6233,11 +6246,11 @@
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -6249,119 +6262,119 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -6376,6 +6389,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
@@ -6384,24 +6415,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="167" priority="19" operator="containsText" text="No run">
@@ -6532,13 +6545,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -6553,13 +6566,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -6590,13 +6603,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -6605,12 +6618,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -6624,11 +6637,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>149</v>
@@ -6640,11 +6653,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -6653,11 +6666,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -6671,11 +6684,11 @@
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -6687,210 +6700,244 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="56"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="38"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
@@ -6899,40 +6946,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="152" priority="25" operator="containsText" text="No run">
@@ -7107,13 +7120,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -7128,13 +7141,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -7165,13 +7178,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -7180,12 +7193,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -7199,11 +7212,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>160</v>
@@ -7215,11 +7228,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -7228,11 +7241,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -7246,11 +7259,11 @@
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -7262,166 +7275,192 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
@@ -7430,32 +7469,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="125" priority="25" operator="containsText" text="No run">
@@ -7608,13 +7621,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -7629,13 +7642,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -7666,13 +7679,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -7681,12 +7694,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -7700,11 +7713,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>170</v>
@@ -7716,11 +7729,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -7729,11 +7742,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -7747,11 +7760,11 @@
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -7763,122 +7776,140 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
@@ -7887,24 +7918,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="104" priority="19" operator="containsText" text="No run">
@@ -8035,13 +8048,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -8056,13 +8069,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -8093,13 +8106,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -8108,12 +8121,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -8127,11 +8140,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>177</v>
@@ -8143,11 +8156,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -8156,11 +8169,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -8174,11 +8187,11 @@
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -8190,166 +8203,192 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
@@ -8358,32 +8397,6 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="No run">
@@ -8536,13 +8549,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -8557,13 +8570,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -8594,13 +8607,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -8609,12 +8622,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -8628,11 +8641,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>190</v>
@@ -8644,11 +8657,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -8657,11 +8670,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -8675,11 +8688,11 @@
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -8691,188 +8704,216 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="56"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
@@ -8883,34 +8924,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="68" priority="28" operator="containsText" text="No run">
@@ -9074,13 +9087,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -9095,13 +9108,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -9132,13 +9145,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -9147,12 +9160,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -9166,11 +9179,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>211</v>
@@ -9182,11 +9195,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -9195,11 +9208,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -9213,11 +9226,11 @@
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -9229,144 +9242,162 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
@@ -9379,24 +9410,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="No run">
@@ -9487,7 +9500,7 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
@@ -9538,13 +9551,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -9559,13 +9572,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -9596,13 +9609,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -9611,12 +9624,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -9630,11 +9643,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>37</v>
@@ -9646,11 +9659,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -9659,11 +9672,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -9672,15 +9685,15 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -9689,110 +9702,123 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="33"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="D5:H5"/>
@@ -9809,19 +9835,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="F11">
     <cfRule type="containsText" dxfId="362" priority="4" operator="containsText" text="Medium">
@@ -9890,8 +9903,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9941,13 +9954,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -9962,13 +9975,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -9999,13 +10012,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -10014,12 +10027,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -10033,11 +10046,11 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
         <v>222</v>
@@ -10049,11 +10062,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -10062,11 +10075,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -10075,17 +10088,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -10097,144 +10110,162 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" s="38"/>
+        <v>231</v>
+      </c>
+      <c r="F19" s="43"/>
       <c r="G19" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="38"/>
+        <v>232</v>
+      </c>
+      <c r="H19" s="43"/>
       <c r="I19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
@@ -10247,24 +10278,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="No run">
@@ -10401,18 +10414,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="D2" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -10427,13 +10440,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -10464,13 +10477,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -10479,12 +10492,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -10498,14 +10511,14 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="29"/>
@@ -10514,11 +10527,11 @@
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -10527,11 +10540,11 @@
       <c r="A10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -10540,17 +10553,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="31"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -10562,93 +10575,93 @@
       <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" ht="113.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="59" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="32" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="No run">
@@ -10757,13 +10770,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -10778,13 +10791,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -10815,13 +10828,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -10830,12 +10843,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -10849,11 +10862,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>60</v>
@@ -10865,11 +10878,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -10878,11 +10891,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -10891,17 +10904,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -10910,100 +10923,113 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="33"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="D5:H5"/>
@@ -11020,19 +11046,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="350" priority="10" operator="containsText" text="No run">
@@ -11152,13 +11165,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -11173,13 +11186,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -11210,13 +11223,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -11225,12 +11238,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -11244,11 +11257,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>67</v>
@@ -11260,11 +11273,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -11273,11 +11286,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -11286,17 +11299,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>68</v>
@@ -11305,154 +11318,149 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="38"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="38"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J15:K15"/>
@@ -11469,12 +11477,17 @@
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="I15">
     <cfRule type="containsText" dxfId="338" priority="16" operator="containsText" text="Not executed">
@@ -11616,13 +11629,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -11637,13 +11650,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -11674,13 +11687,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -11689,12 +11702,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -11708,11 +11721,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>79</v>
@@ -11724,11 +11737,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -11737,11 +11750,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -11750,17 +11763,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>68</v>
@@ -11769,130 +11782,143 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="D5:H5"/>
@@ -11909,19 +11935,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="I15">
     <cfRule type="containsText" dxfId="320" priority="16" operator="containsText" text="Not executed">
@@ -12063,13 +12076,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -12084,13 +12097,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -12121,13 +12134,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -12136,12 +12149,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -12155,11 +12168,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>85</v>
@@ -12171,11 +12184,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -12184,11 +12197,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -12197,17 +12210,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>68</v>
@@ -12216,130 +12229,143 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="D5:H5"/>
@@ -12356,19 +12382,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="I15">
     <cfRule type="containsText" dxfId="302" priority="16" operator="containsText" text="Not executed">
@@ -12510,13 +12523,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -12531,13 +12544,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -12568,13 +12581,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -12583,12 +12596,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -12602,11 +12615,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>91</v>
@@ -12618,11 +12631,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -12631,11 +12644,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -12644,17 +12657,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -12663,120 +12676,133 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="38"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="D5:H5"/>
@@ -12793,19 +12819,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="284" priority="13" operator="containsText" text="No run">
@@ -12936,13 +12949,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -12957,13 +12970,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -12994,13 +13007,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -13009,12 +13022,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -13028,11 +13041,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>99</v>
@@ -13044,11 +13057,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -13057,11 +13070,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -13070,17 +13083,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -13089,130 +13102,143 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="D5:H5"/>
@@ -13229,19 +13255,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="269" priority="16" operator="containsText" text="No run">
@@ -13383,13 +13396,13 @@
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -13404,13 +13417,13 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -13441,13 +13454,13 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="46">
         <v>45032</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
@@ -13456,12 +13469,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -13475,11 +13488,11 @@
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="21"/>
       <c r="F8" s="19" t="s">
         <v>105</v>
@@ -13491,11 +13504,11 @@
       <c r="A9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -13504,11 +13517,11 @@
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="1"/>
       <c r="F10" s="10" t="s">
         <v>42</v>
@@ -13517,17 +13530,17 @@
       <c r="H10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
@@ -13536,120 +13549,133 @@
       <c r="H11" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="38"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="38"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="38"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="D5:H5"/>
@@ -13666,19 +13692,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="containsText" dxfId="251" priority="13" operator="containsText" text="No run">
